--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2051229.620847473</v>
+        <v>2046923.904471402</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>31.44721479321883</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>299.9779908452707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -828,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>63.57678144609353</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>337.7034328109762</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>157.9760822845539</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>9.506826164085645</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,28 +1098,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>47.91898694509031</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>61.32905684098937</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>118.3425826108854</v>
+        <v>202.3860496764733</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>72.26558381699921</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>94.80184639741307</v>
       </c>
     </row>
     <row r="14">
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.70843787977262</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>44.75138076689361</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>251.2117044543522</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>62.14989839348819</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>72.77126028643571</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,13 +2535,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>126.5816737497801</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>141.5502843483916</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>36.86080948088116</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>137.4337101450034</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>161.355549430153</v>
       </c>
     </row>
     <row r="35">
@@ -3319,7 +3319,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>63.16281301712667</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>157.1838954824124</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>80.08971311158757</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>35.41770597126623</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>1.619672595757311</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>172.1249649038643</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1268.68094731003</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.68094731003</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2665.384227590729</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2489.206739904899</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2270.572072876962</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2016.810287515053</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>1685.747400171482</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.288858935031</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X2" t="n">
-        <v>1958.288858935031</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1655.280787374151</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>663.910013048764</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>663.910013048764</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>663.910013048764</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4515,25 +4515,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>663.910013048764</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>663.910013048764</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>663.910013048764</v>
       </c>
       <c r="V4" t="n">
-        <v>184.2708856551153</v>
+        <v>663.910013048764</v>
       </c>
       <c r="W4" t="n">
-        <v>184.2708856551153</v>
+        <v>663.910013048764</v>
       </c>
       <c r="X4" t="n">
-        <v>184.2708856551153</v>
+        <v>663.910013048764</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>663.910013048764</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1001.280783616703</v>
+        <v>1626.717708340416</v>
       </c>
       <c r="C5" t="n">
-        <v>632.3182666762915</v>
+        <v>1626.717708340416</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762915</v>
+        <v>1268.452009733665</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>882.6637571354211</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>875.7182563862176</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2482.548601261287</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2482.548601261287</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2151.485713917717</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2151.485713917717</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1778.019955656637</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y5" t="n">
-        <v>1387.880623680825</v>
+        <v>2013.317548404538</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4658,37 +4658,37 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>257.1154545468208</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>257.1154545468208</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>257.1154545468208</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>109.2023609644277</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>109.2023609644277</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>109.2023609644277</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>257.1154545468208</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>257.1154545468208</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>257.1154545468208</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>257.1154545468208</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X7" t="n">
-        <v>257.1154545468208</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>257.1154545468208</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1359.975337580184</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C8" t="n">
-        <v>1359.975337580184</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D8" t="n">
-        <v>1001.709638973434</v>
+        <v>135.884402556362</v>
       </c>
       <c r="E8" t="n">
-        <v>1001.709638973434</v>
+        <v>73.93586029273641</v>
       </c>
       <c r="F8" t="n">
-        <v>590.7237341838262</v>
+        <v>66.99035954353293</v>
       </c>
       <c r="G8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,19 +4807,19 @@
         <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>478.6443448337932</v>
+        <v>192.4307036906658</v>
       </c>
       <c r="L8" t="n">
-        <v>1031.457603079992</v>
+        <v>745.243961936865</v>
       </c>
       <c r="M8" t="n">
-        <v>1663.175414063304</v>
+        <v>1376.961772920177</v>
       </c>
       <c r="N8" t="n">
-        <v>1857.509626955287</v>
+        <v>2004.269440980023</v>
       </c>
       <c r="O8" t="n">
-        <v>2232.849924657333</v>
+        <v>2551.430645747101</v>
       </c>
       <c r="P8" t="n">
         <v>2662.164970996627</v>
@@ -4834,22 +4834,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2482.349229285934</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2482.349229285934</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2151.286341942363</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1798.517686672249</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1798.517686672249</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1408.378354696437</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>639.260235998764</v>
+        <v>887.7329259922928</v>
       </c>
       <c r="M9" t="n">
-        <v>1279.805585465869</v>
+        <v>1528.278275459397</v>
       </c>
       <c r="N9" t="n">
-        <v>1822.094502051329</v>
+        <v>1726.935017112062</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2276.371025864785</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.7922583306645</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4986,28 +4986,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>715.9594172515172</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>490.3302205638821</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>490.3302205638821</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>490.3302205638821</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>490.3302205638821</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>490.3302205638821</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>370.7922583306645</v>
+        <v>849.4473100711502</v>
       </c>
     </row>
     <row r="11">
@@ -5023,10 +5023,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5229,22 +5229,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2191.112710026075</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="14">
@@ -5269,37 +5269,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5418,19 +5418,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>175.9033664000583</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,7 +5527,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327652</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048583</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D19" t="n">
-        <v>594.8179559048583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630049</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>949.9304447718132</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.4550657171305</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="C22" t="n">
-        <v>564.5188827892237</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D22" t="n">
-        <v>564.5188827892237</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
-        <v>416.6057892068305</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>416.6057892068305</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>249.4096899217105</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,37 +5977,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
@@ -6071,22 +6071,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2515.675093211831</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>868.6673633290468</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>699.7311804011399</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1560.525577339777</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1271.108407302816</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1271.108407302816</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1050.315828159286</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,64 +6214,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>2418.621364762389</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L27" t="n">
-        <v>2913.946970978147</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M27" t="n">
-        <v>3511.325458604699</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N27" t="n">
-        <v>4138.923422159306</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>4690.833152398593</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>802.9288273958739</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>633.992644467967</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>491.0125592675714</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.5772922261136</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>985.7836617409695</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>816.8474788130626</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2160.315914855604</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1905.631426649717</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1616.214256612757</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1388.224705714739</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1167.432126571209</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,16 +6712,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>2876.560776129205</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>2876.560776129205</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>3482.038612289356</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1089.575996120531</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>920.6398131926237</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>770.5231737802879</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>2264.108249235165</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>2009.423761029278</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1720.006590992318</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1492.0170400943</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1271.22446095077</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6931,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6958,13 +6958,13 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6973,7 +6973,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>409.1360811687895</v>
       </c>
       <c r="L36" t="n">
-        <v>634.5603720565524</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M36" t="n">
-        <v>1231.938859683104</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.5020655703114</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C37" t="n">
-        <v>695.5020655703114</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D37" t="n">
-        <v>695.5020655703114</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
         <v>484.8112968429802</v>
@@ -7089,10 +7089,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7137,10 +7137,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="38">
@@ -7162,40 +7162,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.765362972544</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>2515.675093211831</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>734.6461798836018</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>565.7099969556949</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138415</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7414,25 +7414,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1470.207143961552</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2022.116874200839</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>296.7882229101285</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>296.7882229101285</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>129.5921236250085</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7648,22 +7648,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>948.5505208511906</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>779.6143379232838</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1686.749820929699</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1397.332650892738</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1169.343099994721</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>948.5505208511906</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>35.04072454780376</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8464,13 +8464,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>207.2437094798856</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>347.1032070028236</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>230.7984289569017</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9175,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-8.360776804491007e-13</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>-1.063451355892333e-12</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23469,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>213.9188905722449</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
     </row>
     <row r="14">
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23673,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>101.6825818796756</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>34.97276993489191</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>117.6820817884491</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>67.52345255978815</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>125.5559695740479</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>7.065188669820742</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>111.7546635373312</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>9.00025250156574</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
     </row>
     <row r="35">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>83.2711496294425</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>61.40075786968239</v>
       </c>
     </row>
     <row r="38">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>68.52575990662478</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>104.8770068749577</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>250.5179707280707</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>852383.481394605</v>
+        <v>852383.4813946049</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>852383.4813946051</v>
+        <v>852383.481394605</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>852383.4813946051</v>
+        <v>852383.481394605</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>852383.4813946052</v>
+        <v>852383.481394605</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>852383.4813946052</v>
+        <v>852383.481394605</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>852383.4813946051</v>
+        <v>852383.481394605</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>852383.4813946051</v>
+        <v>852383.481394605</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>852383.4813946051</v>
+        <v>852383.481394605</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049991</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
         <v>565002.6197830042</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="H2" t="n">
         <v>565002.6197830046</v>
       </c>
       <c r="I2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="J2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="L2" t="n">
         <v>565002.6197830046</v>
       </c>
       <c r="M2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="N2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="O2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="N2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830043</v>
-      </c>
       <c r="P2" t="n">
-        <v>565002.6197830047</v>
+        <v>565002.6197830045</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080586</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26423,43 +26423,43 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="G4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="G4" t="n">
-        <v>5677.536566682725</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5677.536566682744</v>
-      </c>
       <c r="I4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682784</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682721</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682719</v>
       </c>
       <c r="M4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="O4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-308020.1338359884</v>
+        <v>-308020.1338359881</v>
       </c>
       <c r="C6" t="n">
-        <v>281947.7453785561</v>
+        <v>281947.7453785558</v>
       </c>
       <c r="D6" t="n">
-        <v>126143.9392847608</v>
+        <v>126143.9392847606</v>
       </c>
       <c r="E6" t="n">
-        <v>-312850.1379883921</v>
+        <v>-313197.517242749</v>
       </c>
       <c r="F6" t="n">
-        <v>458202.5533924145</v>
+        <v>457855.1741380577</v>
       </c>
       <c r="G6" t="n">
-        <v>458202.5533924142</v>
+        <v>457855.1741380578</v>
       </c>
       <c r="H6" t="n">
-        <v>458202.5533924148</v>
+        <v>457855.1741380578</v>
       </c>
       <c r="I6" t="n">
-        <v>458202.5533924148</v>
+        <v>457855.1741380576</v>
       </c>
       <c r="J6" t="n">
-        <v>281779.3341998216</v>
+        <v>281431.9549454646</v>
       </c>
       <c r="K6" t="n">
-        <v>458202.5533924146</v>
+        <v>457855.1741380575</v>
       </c>
       <c r="L6" t="n">
-        <v>458202.5533924148</v>
+        <v>457855.1741380577</v>
       </c>
       <c r="M6" t="n">
-        <v>333994.042684356</v>
+        <v>333646.6634299993</v>
       </c>
       <c r="N6" t="n">
-        <v>458202.5533924148</v>
+        <v>457855.1741380578</v>
       </c>
       <c r="O6" t="n">
-        <v>458202.5533924145</v>
+        <v>457855.1741380576</v>
       </c>
       <c r="P6" t="n">
-        <v>458202.5533924149</v>
+        <v>457855.1741380576</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26974,23 +26974,23 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>23.03118778159288</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>86.25994781078293</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27548,16 +27548,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27587,16 +27587,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>148.5687575039254</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>89.56002855569147</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>76.08073720981884</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>58.47223807310385</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>146.6640626777095</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,28 +27818,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724708</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>334.8148547183903</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>320.6013132312724</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>100.2420707412093</v>
+        <v>16.19860367562146</v>
       </c>
     </row>
     <row r="11">
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31837,31 +31837,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32089,7 +32089,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32101,7 +32101,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>140.7358547888808</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>514.8598010172136</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>177.7456072667729</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>175.605272155109</v>
+        <v>379.8551982710416</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>575.5951359912044</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>369.1789913099997</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33496,31 +33496,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>742.9354859824754</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,16 +33733,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>303.4024373464759</v>
       </c>
       <c r="L36" t="n">
-        <v>533.6019216797993</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
@@ -33757,10 +33757,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34207,16 +34207,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>397.6543049213403</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>545.3845241768652</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>118.4378503807253</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
@@ -35184,13 +35184,13 @@
         <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>379.1316138404507</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
         <v>35.33749497130819</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>547.7665824095557</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>340.5859315097288</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M11" t="n">
         <v>735.3001107902948</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35737,7 +35737,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>376.3054212373395</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>37.7638331807514</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>37.76383318075003</v>
+        <v>242.0137592966826</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>433.4611020691861</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37077,7 +37077,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193518</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>611.5937738991421</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>165.560998372117</v>
       </c>
       <c r="L36" t="n">
-        <v>395.0475418999251</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37405,10 +37405,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>263.67989750701</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>406.830144396991</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>219.1556674334648</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2046923.904471402</v>
+        <v>2048684.434774187</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>295.9408816142891</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>31.44721479321883</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -828,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>63.57678144609353</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>77.75898906987835</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>337.7034328109762</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>61.32905684098937</v>
+        <v>234.428428182984</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1378,10 +1378,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>75.96788793061754</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>94.80184639741307</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>53.82913822149973</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>102.1557845699813</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>251.2117044543522</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>62.14989839348819</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>80.08971311158706</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>161.355549430153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>157.1838954824124</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3951,10 +3951,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>172.1249649038643</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>959.5129866402885</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>959.5129866402885</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2665.384227590729</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2489.206739904899</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2270.572072876962</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2016.810287515053</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1685.747400171482</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1332.978744901368</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>959.5129866402885</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>959.5129866402885</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4400,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>663.910013048764</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>663.910013048764</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>663.910013048764</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>663.910013048764</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4515,25 +4515,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>663.910013048764</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>663.910013048764</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>663.910013048764</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>663.910013048764</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>663.910013048764</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X4" t="n">
-        <v>663.910013048764</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>663.910013048764</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1626.717708340416</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.717708340416</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.452009733665</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E5" t="n">
-        <v>882.6637571354211</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>875.7182563862176</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>2013.317548404538</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y5" t="n">
-        <v>2013.317548404538</v>
+        <v>1782.111371249201</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4761,16 +4761,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>184.0273259635867</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035243</v>
+        <v>1037.960467943923</v>
       </c>
       <c r="C8" t="n">
-        <v>494.1501011631125</v>
+        <v>668.9979510035112</v>
       </c>
       <c r="D8" t="n">
-        <v>135.884402556362</v>
+        <v>310.7322523967607</v>
       </c>
       <c r="E8" t="n">
         <v>73.93586029273641</v>
@@ -4807,22 +4807,22 @@
         <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906658</v>
+        <v>478.6443448337932</v>
       </c>
       <c r="L8" t="n">
-        <v>745.243961936865</v>
+        <v>1031.457603079992</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>1663.175414063304</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>1857.509626955287</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2027.678652272246</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>2188.165398244936</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1814.699639983856</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1424.560308008045</v>
       </c>
     </row>
     <row r="9">
@@ -4895,13 +4895,13 @@
         <v>1528.278275459397</v>
       </c>
       <c r="N9" t="n">
-        <v>1726.935017112062</v>
+        <v>1822.094502051329</v>
       </c>
       <c r="O9" t="n">
-        <v>2276.371025864785</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -5026,7 +5026,7 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>705.9324428257312</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>887.5809076559709</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5369,7 +5369,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E16" t="n">
-        <v>197.0043242297712</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5503,10 +5503,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1723.711884091971</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5840,10 +5840,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.7243904253734</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,61 +6202,61 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>484.8243144841095</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6429,7 +6429,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6551,13 +6551,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.859558793925</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6955,34 +6955,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>409.1360811687895</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1501.8401750111</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832228</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C37" t="n">
-        <v>634.9279362553159</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.284195611859</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y37" t="n">
-        <v>985.5125840134625</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="38">
@@ -7168,7 +7168,7 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7180,16 +7180,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7262,13 +7262,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7429,10 +7429,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7599,7 +7599,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
         <v>1746.193029533436</v>
@@ -7627,70 +7627,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7733,10 +7733,10 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>980.1499206998682</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M45" t="n">
-        <v>1577.52840832642</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N45" t="n">
         <v>1577.52840832642</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>35.04072454780376</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8464,16 +8464,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>316.7274269914635</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8543,16 +8543,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>96.12069185784512</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>230.7984289569017</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>103.8640922513198</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23466,7 +23466,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>126.0028419604376</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>43.26526345294991</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>34.97276993489191</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>117.6820817884491</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>68.5257599066253</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>23.8310863865741</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>61.40075786968239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.45968844823051</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>852383.4813946049</v>
+        <v>852383.4813946051</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>852383.4813946051</v>
+        <v>852383.481394605</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>852383.4813946051</v>
+        <v>852383.481394605</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>852383.481394605</v>
+        <v>852383.4813946051</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>852383.481394605</v>
+        <v>852383.4813946051</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>852383.4813946051</v>
+        <v>852383.481394605</v>
       </c>
     </row>
     <row r="14">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049991</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="F2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="G2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="I2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="J2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="K2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="G2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="H2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="M2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="N2" t="n">
         <v>565002.6197830044</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="M2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="N2" t="n">
-        <v>565002.6197830045</v>
       </c>
       <c r="O2" t="n">
         <v>565002.6197830044</v>
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>184756.2785481117</v>
       </c>
       <c r="E3" t="n">
         <v>771052.6913808064</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080584</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26429,7 +26429,7 @@
         <v>5677.536566682744</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
         <v>5677.536566682745</v>
@@ -26441,19 +26441,19 @@
         <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682784</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="K4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682719</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="O4" t="n">
         <v>5677.536566682744</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-308020.1338359881</v>
+        <v>-308020.1338359887</v>
       </c>
       <c r="C6" t="n">
-        <v>281947.7453785558</v>
+        <v>281947.745378556</v>
       </c>
       <c r="D6" t="n">
         <v>126143.9392847606</v>
       </c>
       <c r="E6" t="n">
-        <v>-313197.517242749</v>
+        <v>-312884.8759138276</v>
       </c>
       <c r="F6" t="n">
-        <v>457855.1741380577</v>
+        <v>458167.8154669788</v>
       </c>
       <c r="G6" t="n">
-        <v>457855.1741380578</v>
+        <v>458167.8154669788</v>
       </c>
       <c r="H6" t="n">
-        <v>457855.1741380578</v>
+        <v>458167.8154669788</v>
       </c>
       <c r="I6" t="n">
-        <v>457855.1741380576</v>
+        <v>458167.8154669787</v>
       </c>
       <c r="J6" t="n">
-        <v>281431.9549454646</v>
+        <v>281744.596274386</v>
       </c>
       <c r="K6" t="n">
-        <v>457855.1741380575</v>
+        <v>458167.8154669789</v>
       </c>
       <c r="L6" t="n">
-        <v>457855.1741380577</v>
+        <v>458167.8154669789</v>
       </c>
       <c r="M6" t="n">
-        <v>333646.6634299993</v>
+        <v>333959.3047589205</v>
       </c>
       <c r="N6" t="n">
-        <v>457855.1741380578</v>
+        <v>458167.8154669788</v>
       </c>
       <c r="O6" t="n">
-        <v>457855.1741380576</v>
+        <v>458167.8154669788</v>
       </c>
       <c r="P6" t="n">
-        <v>457855.1741380576</v>
+        <v>458167.8154669789</v>
       </c>
     </row>
   </sheetData>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>215.7324361209785</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>85.98948845797264</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>23.03118778159288</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27548,19 +27548,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>148.5687575039254</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>304.9748525936022</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>76.08073720981884</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27833,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>96.92615468724708</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>320.6013132312724</v>
+        <v>147.5019418892778</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -27912,7 +27912,7 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -32089,10 +32089,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32560,13 +32560,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32794,10 +32794,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>282.8216163968503</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32806,10 +32806,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33028,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>379.8551982710416</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,13 +33037,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33271,16 +33271,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>208.6096528357818</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>369.1789913099997</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,22 +33739,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>303.4024373464759</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33982,7 +33982,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>573.8098963904297</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33991,7 +33991,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34222,16 +34222,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,22 +34450,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>545.3845241768652</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>118.4378503807253</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
@@ -35184,16 +35184,16 @@
         <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>428.580280778864</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35263,16 +35263,16 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>296.7840672645771</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
-        <v>340.5859315097288</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
         <v>735.3001107902948</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35652,7 +35652,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M14" t="n">
         <v>735.3001107902948</v>
@@ -35737,10 +35737,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,10 +36442,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>140.6875824748321</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36454,10 +36454,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>242.0137592966826</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,13 +36685,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>66.47561891376348</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>226.5827468655553</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>165.560998372117</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37630,7 +37630,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>431.6758624684114</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37639,7 +37639,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37870,16 +37870,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>406.830144396991</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
